--- a/sample/xls/sample.xlsx
+++ b/sample/xls/sample.xlsx
@@ -8,7 +8,8 @@
   </bookViews>
   <sheets>
     <sheet name="ダミーシート" sheetId="2" r:id="rId1"/>
-    <sheet name="都道府県" sheetId="3" r:id="rId2"/>
+    <sheet name="ダミーシート２" sheetId="4" r:id="rId2"/>
+    <sheet name="都道府県" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="140001" concurrentCalc="0"/>
   <extLst>
@@ -20,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="414" uniqueCount="332">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="427" uniqueCount="333">
   <si>
     <t>連番</t>
   </si>
@@ -1097,6 +1098,10 @@
   </si>
   <si>
     <t>なまえ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>イタリア</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -2376,10 +2381,88 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A5:D8"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D30" sqref="D30"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="12" defaultRowHeight="18" x14ac:dyDescent="0"/>
+  <sheetData>
+    <row r="5" spans="1:4">
+      <c r="A5" t="s">
+        <v>0</v>
+      </c>
+      <c r="B5" t="s">
+        <v>1</v>
+      </c>
+      <c r="C5" t="s">
+        <v>2</v>
+      </c>
+      <c r="D5" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4">
+      <c r="A6" s="2">
+        <v>1</v>
+      </c>
+      <c r="B6" t="s">
+        <v>265</v>
+      </c>
+      <c r="C6" t="s">
+        <v>276</v>
+      </c>
+      <c r="D6" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4">
+      <c r="A7" s="2">
+        <v>2</v>
+      </c>
+      <c r="B7" t="s">
+        <v>266</v>
+      </c>
+      <c r="C7" t="s">
+        <v>277</v>
+      </c>
+      <c r="D7" t="s">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4">
+      <c r="A8" s="2">
+        <v>3</v>
+      </c>
+      <c r="B8" t="s">
+        <v>267</v>
+      </c>
+      <c r="C8" t="s">
+        <v>278</v>
+      </c>
+      <c r="D8" t="s">
+        <v>43</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A5:E52"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E42" sqref="E42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="12" defaultRowHeight="18" x14ac:dyDescent="0"/>

--- a/sample/xls/sample.xlsx
+++ b/sample/xls/sample.xlsx
@@ -4,12 +4,13 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="24816"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="15680" yWindow="3580" windowWidth="32740" windowHeight="23860" tabRatio="500" activeTab="1"/>
+    <workbookView xWindow="15400" yWindow="3400" windowWidth="32740" windowHeight="23860" tabRatio="500" activeTab="1"/>
   </bookViews>
   <sheets>
-    <sheet name="ダミーシート" sheetId="2" r:id="rId1"/>
-    <sheet name="ダミーシート２" sheetId="4" r:id="rId2"/>
-    <sheet name="都道府県" sheetId="3" r:id="rId3"/>
+    <sheet name="dummy1" sheetId="2" r:id="rId1"/>
+    <sheet name="dummy2" sheetId="5" r:id="rId2"/>
+    <sheet name="nothing_foreignkey" sheetId="4" r:id="rId3"/>
+    <sheet name="都道府県" sheetId="3" r:id="rId4"/>
   </sheets>
   <calcPr calcId="140001" concurrentCalc="0"/>
   <extLst>
@@ -21,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="427" uniqueCount="333">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="444" uniqueCount="337">
   <si>
     <t>連番</t>
   </si>
@@ -1103,6 +1104,21 @@
   <si>
     <t>イタリア</t>
     <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>かがわ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>かながわ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>とうきょう</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>現住都道府県</t>
   </si>
 </sst>
 </file>
@@ -1172,8 +1188,16 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="19">
+  <cellStyleXfs count="27">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -1200,7 +1224,7 @@
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="19">
+  <cellStyles count="27">
     <cellStyle name="ハイパーリンク" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="ハイパーリンク" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="ハイパーリンク" xfId="5" builtinId="8" hidden="1"/>
@@ -1210,6 +1234,10 @@
     <cellStyle name="ハイパーリンク" xfId="13" builtinId="8" hidden="1"/>
     <cellStyle name="ハイパーリンク" xfId="15" builtinId="8" hidden="1"/>
     <cellStyle name="ハイパーリンク" xfId="17" builtinId="8" hidden="1"/>
+    <cellStyle name="ハイパーリンク" xfId="19" builtinId="8" hidden="1"/>
+    <cellStyle name="ハイパーリンク" xfId="21" builtinId="8" hidden="1"/>
+    <cellStyle name="ハイパーリンク" xfId="23" builtinId="8" hidden="1"/>
+    <cellStyle name="ハイパーリンク" xfId="25" builtinId="8" hidden="1"/>
     <cellStyle name="標準" xfId="0" builtinId="0"/>
     <cellStyle name="表示済みのハイパーリンク" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="表示済みのハイパーリンク" xfId="4" builtinId="9" hidden="1"/>
@@ -1220,6 +1248,10 @@
     <cellStyle name="表示済みのハイパーリンク" xfId="14" builtinId="9" hidden="1"/>
     <cellStyle name="表示済みのハイパーリンク" xfId="16" builtinId="9" hidden="1"/>
     <cellStyle name="表示済みのハイパーリンク" xfId="18" builtinId="9" hidden="1"/>
+    <cellStyle name="表示済みのハイパーリンク" xfId="20" builtinId="9" hidden="1"/>
+    <cellStyle name="表示済みのハイパーリンク" xfId="22" builtinId="9" hidden="1"/>
+    <cellStyle name="表示済みのハイパーリンク" xfId="24" builtinId="9" hidden="1"/>
+    <cellStyle name="表示済みのハイパーリンク" xfId="26" builtinId="9" hidden="1"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium4"/>
@@ -1550,8 +1582,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A5:V16"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A17" sqref="A17"/>
+    <sheetView topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="R5" sqref="R5:R8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="12" defaultRowHeight="18" x14ac:dyDescent="0"/>
@@ -2381,15 +2413,15 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A5:D8"/>
+  <dimension ref="A5:E8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D30" sqref="D30"/>
+      <selection activeCell="O20" sqref="O20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="12" defaultRowHeight="18" x14ac:dyDescent="0"/>
   <sheetData>
-    <row r="5" spans="1:4">
+    <row r="5" spans="1:5">
       <c r="A5" t="s">
         <v>0</v>
       </c>
@@ -2402,8 +2434,11 @@
       <c r="D5" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="6" spans="1:4">
+      <c r="E5" t="s">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5">
       <c r="A6" s="2">
         <v>1</v>
       </c>
@@ -2416,8 +2451,11 @@
       <c r="D6" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="7" spans="1:4">
+      <c r="E6" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5">
       <c r="A7" s="2">
         <v>2</v>
       </c>
@@ -2428,10 +2466,13 @@
         <v>277</v>
       </c>
       <c r="D7" t="s">
-        <v>332</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4">
+        <v>35</v>
+      </c>
+      <c r="E7" t="s">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5">
       <c r="A8" s="2">
         <v>3</v>
       </c>
@@ -2443,6 +2484,9 @@
       </c>
       <c r="D8" t="s">
         <v>43</v>
+      </c>
+      <c r="E8" t="s">
+        <v>335</v>
       </c>
     </row>
   </sheetData>
@@ -2459,6 +2503,84 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A5:D8"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D53" sqref="D53"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="12" defaultRowHeight="18" x14ac:dyDescent="0"/>
+  <sheetData>
+    <row r="5" spans="1:4">
+      <c r="A5" t="s">
+        <v>0</v>
+      </c>
+      <c r="B5" t="s">
+        <v>1</v>
+      </c>
+      <c r="C5" t="s">
+        <v>2</v>
+      </c>
+      <c r="D5" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4">
+      <c r="A6" s="2">
+        <v>1</v>
+      </c>
+      <c r="B6" t="s">
+        <v>265</v>
+      </c>
+      <c r="C6" t="s">
+        <v>276</v>
+      </c>
+      <c r="D6" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4">
+      <c r="A7" s="2">
+        <v>2</v>
+      </c>
+      <c r="B7" t="s">
+        <v>266</v>
+      </c>
+      <c r="C7" t="s">
+        <v>277</v>
+      </c>
+      <c r="D7" t="s">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4">
+      <c r="A8" s="2">
+        <v>3</v>
+      </c>
+      <c r="B8" t="s">
+        <v>267</v>
+      </c>
+      <c r="C8" t="s">
+        <v>278</v>
+      </c>
+      <c r="D8" t="s">
+        <v>43</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A5:E52"/>
   <sheetViews>
     <sheetView workbookViewId="0">
